--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam23-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam23-Itgb3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1448543333333333</v>
+        <v>0.165747</v>
       </c>
       <c r="H2">
-        <v>0.434563</v>
+        <v>0.497241</v>
       </c>
       <c r="I2">
-        <v>0.007514552731137001</v>
+        <v>0.008095785894995438</v>
       </c>
       <c r="J2">
-        <v>0.007514552731137001</v>
+        <v>0.00809578589499544</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N2">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O2">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P2">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q2">
-        <v>0.3594544830537778</v>
+        <v>0.457386194617</v>
       </c>
       <c r="R2">
-        <v>3.235090347484</v>
+        <v>4.116475751553</v>
       </c>
       <c r="S2">
-        <v>0.001762214527799654</v>
+        <v>0.002083909804190694</v>
       </c>
       <c r="T2">
-        <v>0.001762214527799654</v>
+        <v>0.002083909804190695</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1448543333333333</v>
+        <v>0.165747</v>
       </c>
       <c r="H3">
-        <v>0.434563</v>
+        <v>0.497241</v>
       </c>
       <c r="I3">
-        <v>0.007514552731137001</v>
+        <v>0.008095785894995438</v>
       </c>
       <c r="J3">
-        <v>0.007514552731137001</v>
+        <v>0.00809578589499544</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>21.735681</v>
       </c>
       <c r="O3">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P3">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q3">
-        <v>1.049502526933667</v>
+        <v>1.200874639569</v>
       </c>
       <c r="R3">
-        <v>9.445522742403</v>
+        <v>10.807871756121</v>
       </c>
       <c r="S3">
-        <v>0.005145153801429319</v>
+        <v>0.005471337929421608</v>
       </c>
       <c r="T3">
-        <v>0.005145153801429318</v>
+        <v>0.00547133792942161</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1448543333333333</v>
+        <v>0.165747</v>
       </c>
       <c r="H4">
-        <v>0.434563</v>
+        <v>0.497241</v>
       </c>
       <c r="I4">
-        <v>0.007514552731137001</v>
+        <v>0.008095785894995438</v>
       </c>
       <c r="J4">
-        <v>0.007514552731137001</v>
+        <v>0.00809578589499544</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N4">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O4">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P4">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q4">
-        <v>0.09485472167277779</v>
+        <v>0.08619363340600002</v>
       </c>
       <c r="R4">
-        <v>0.8536924950550002</v>
+        <v>0.7757427006540001</v>
       </c>
       <c r="S4">
-        <v>0.0004650223503740636</v>
+        <v>0.0003927091806170267</v>
       </c>
       <c r="T4">
-        <v>0.0004650223503740636</v>
+        <v>0.0003927091806170267</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1448543333333333</v>
+        <v>0.165747</v>
       </c>
       <c r="H5">
-        <v>0.434563</v>
+        <v>0.497241</v>
       </c>
       <c r="I5">
-        <v>0.007514552731137001</v>
+        <v>0.008095785894995438</v>
       </c>
       <c r="J5">
-        <v>0.007514552731137001</v>
+        <v>0.00809578589499544</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N5">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O5">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P5">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q5">
-        <v>0.02899805099655555</v>
+        <v>0.032446190728</v>
       </c>
       <c r="R5">
-        <v>0.260982458969</v>
+        <v>0.292015716552</v>
       </c>
       <c r="S5">
-        <v>0.0001421620515339637</v>
+        <v>0.0001478289807661093</v>
       </c>
       <c r="T5">
-        <v>0.0001421620515339637</v>
+        <v>0.0001478289807661093</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>43.483467</v>
       </c>
       <c r="I6">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="J6">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N6">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O6">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P6">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q6">
-        <v>35.96791984561735</v>
+        <v>39.99818498451233</v>
       </c>
       <c r="R6">
-        <v>323.7112786105561</v>
+        <v>359.983664860611</v>
       </c>
       <c r="S6">
-        <v>0.1763316188136055</v>
+        <v>0.1822368292266779</v>
       </c>
       <c r="T6">
-        <v>0.1763316188136055</v>
+        <v>0.1822368292266779</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>43.483467</v>
       </c>
       <c r="I7">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="J7">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>21.735681</v>
       </c>
       <c r="O7">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P7">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q7">
         <v>105.015863054003</v>
@@ -883,10 +883,10 @@
         <v>945.1427674860271</v>
       </c>
       <c r="S7">
-        <v>0.5148370329143908</v>
+        <v>0.4784656581011076</v>
       </c>
       <c r="T7">
-        <v>0.5148370329143906</v>
+        <v>0.4784656581011076</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>43.483467</v>
       </c>
       <c r="I8">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="J8">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N8">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O8">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P8">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q8">
-        <v>9.491402074388336</v>
+        <v>7.537588440655335</v>
       </c>
       <c r="R8">
-        <v>85.42261866949502</v>
+        <v>67.83829596589801</v>
       </c>
       <c r="S8">
-        <v>0.04653130622430587</v>
+        <v>0.03434221372726208</v>
       </c>
       <c r="T8">
-        <v>0.04653130622430587</v>
+        <v>0.03434221372726207</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>43.483467</v>
       </c>
       <c r="I9">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="J9">
-        <v>0.7519250504625467</v>
+        <v>0.7079722685862583</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N9">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O9">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P9">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q9">
-        <v>2.901617932435667</v>
+        <v>2.837402514669334</v>
       </c>
       <c r="R9">
-        <v>26.114561391921</v>
+        <v>25.536622632024</v>
       </c>
       <c r="S9">
-        <v>0.01422509251024457</v>
+        <v>0.01292756753121072</v>
       </c>
       <c r="T9">
-        <v>0.01422509251024457</v>
+        <v>0.01292756753121072</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.545982333333334</v>
+        <v>5.642879333333333</v>
       </c>
       <c r="H10">
-        <v>13.637947</v>
+        <v>16.928638</v>
       </c>
       <c r="I10">
-        <v>0.235830183140193</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="J10">
-        <v>0.2358301831401929</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N10">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O10">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P10">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q10">
-        <v>11.28080666968845</v>
+        <v>15.57177568798378</v>
       </c>
       <c r="R10">
-        <v>101.527260027196</v>
+        <v>140.145981191854</v>
       </c>
       <c r="S10">
-        <v>0.05530380711832742</v>
+        <v>0.0709469949175453</v>
       </c>
       <c r="T10">
-        <v>0.05530380711832741</v>
+        <v>0.0709469949175453</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.545982333333334</v>
+        <v>5.642879333333333</v>
       </c>
       <c r="H11">
-        <v>13.637947</v>
+        <v>16.928638</v>
       </c>
       <c r="I11">
-        <v>0.235830183140193</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="J11">
-        <v>0.2358301831401929</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>21.735681</v>
       </c>
       <c r="O11">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P11">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q11">
-        <v>32.93667394298967</v>
+        <v>40.88394170360866</v>
       </c>
       <c r="R11">
-        <v>296.430065486907</v>
+        <v>367.955475332478</v>
       </c>
       <c r="S11">
-        <v>0.1614710291735412</v>
+        <v>0.1862724497433799</v>
       </c>
       <c r="T11">
-        <v>0.1614710291735412</v>
+        <v>0.1862724497433799</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.545982333333334</v>
+        <v>5.642879333333333</v>
       </c>
       <c r="H12">
-        <v>13.637947</v>
+        <v>16.928638</v>
       </c>
       <c r="I12">
-        <v>0.235830183140193</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="J12">
-        <v>0.2358301831401929</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N12">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O12">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P12">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q12">
-        <v>2.976838034699445</v>
+        <v>2.934474063552445</v>
       </c>
       <c r="R12">
-        <v>26.791542312295</v>
+        <v>26.410266571972</v>
       </c>
       <c r="S12">
-        <v>0.01459385674394026</v>
+        <v>0.01336983788131361</v>
       </c>
       <c r="T12">
-        <v>0.01459385674394026</v>
+        <v>0.01336983788131361</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.545982333333334</v>
+        <v>5.642879333333333</v>
       </c>
       <c r="H13">
-        <v>13.637947</v>
+        <v>16.928638</v>
       </c>
       <c r="I13">
-        <v>0.235830183140193</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="J13">
-        <v>0.2358301831401929</v>
+        <v>0.2756221404547972</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N13">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O13">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P13">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q13">
-        <v>0.9100495960178889</v>
+        <v>1.104635010615111</v>
       </c>
       <c r="R13">
-        <v>8.190446364161</v>
+        <v>9.941715095536001</v>
       </c>
       <c r="S13">
-        <v>0.004461490104384096</v>
+        <v>0.005032857912558351</v>
       </c>
       <c r="T13">
-        <v>0.004461490104384096</v>
+        <v>0.005032857912558351</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.09118199999999999</v>
+        <v>0.1701286666666667</v>
       </c>
       <c r="H14">
-        <v>0.273546</v>
+        <v>0.510386</v>
       </c>
       <c r="I14">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="J14">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N14">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O14">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P14">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q14">
-        <v>0.226267160392</v>
+        <v>0.4694775980375555</v>
       </c>
       <c r="R14">
-        <v>2.036404443528</v>
+        <v>4.225298382338</v>
       </c>
       <c r="S14">
-        <v>0.001109267782166186</v>
+        <v>0.002138999779426217</v>
       </c>
       <c r="T14">
-        <v>0.001109267782166186</v>
+        <v>0.002138999779426217</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.09118199999999999</v>
+        <v>0.1701286666666667</v>
       </c>
       <c r="H15">
-        <v>0.273546</v>
+        <v>0.510386</v>
       </c>
       <c r="I15">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="J15">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>21.735681</v>
       </c>
       <c r="O15">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P15">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q15">
-        <v>0.6606342883139998</v>
+        <v>1.232620809207333</v>
       </c>
       <c r="R15">
-        <v>5.945708594825999</v>
+        <v>11.093587282866</v>
       </c>
       <c r="S15">
-        <v>0.003238739243253071</v>
+        <v>0.005615977524873808</v>
       </c>
       <c r="T15">
-        <v>0.00323873924325307</v>
+        <v>0.005615977524873808</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.09118199999999999</v>
+        <v>0.1701286666666667</v>
       </c>
       <c r="H16">
-        <v>0.273546</v>
+        <v>0.510386</v>
       </c>
       <c r="I16">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="J16">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N16">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O16">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P16">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q16">
-        <v>0.05970855709</v>
+        <v>0.08847223736488891</v>
       </c>
       <c r="R16">
-        <v>0.53737701381</v>
+        <v>0.7962501362840001</v>
       </c>
       <c r="S16">
-        <v>0.0002927193614169259</v>
+        <v>0.0004030907906998856</v>
       </c>
       <c r="T16">
-        <v>0.0002927193614169259</v>
+        <v>0.0004030907906998855</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.09118199999999999</v>
+        <v>0.1701286666666667</v>
       </c>
       <c r="H17">
-        <v>0.273546</v>
+        <v>0.510386</v>
       </c>
       <c r="I17">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="J17">
-        <v>0.004730213666123442</v>
+        <v>0.008309805063949155</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N17">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O17">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P17">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q17">
-        <v>0.018253511822</v>
+        <v>0.03330393411022223</v>
       </c>
       <c r="R17">
-        <v>0.164281606398</v>
+        <v>0.299735406992</v>
       </c>
       <c r="S17">
-        <v>8.948727928726014E-05</v>
+        <v>0.0001517369689492448</v>
       </c>
       <c r="T17">
-        <v>8.948727928726014E-05</v>
+        <v>0.0001517369689492448</v>
       </c>
     </row>
   </sheetData>
